--- a/SoftwareSanitario/database/excel/generalDoctors_Data.xlsx
+++ b/SoftwareSanitario/database/excel/generalDoctors_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitn365-my.sharepoint.com/personal/francesco_pozzobon_unitn_it/Documents/UniTN/2018-2019/corsi/Introduzione prog. Web/progetto/Software-Sanitario-unitn/SoftwareSanitario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Francesco\OneDrive - Università degli Studi di Trento\UniTN\2018-2019\corsi\Introduzione prog. Web\progetto\Software-Sanitario-unitn\SoftwareSanitario\database\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{F323A978-9F7F-49A1-88D0-41C4F0D7FA1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABC17181-644A-4AAD-92DB-6E9ACBB368EF}"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{ABC17181-644A-4AAD-92DB-6E9ACBB368EF}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralDoctors" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,10 +417,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F1D26AA9063C44D9D7B42AEE879C6CD" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2f80071aa66f82567bdcc22d9883f7f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e25ae402-d948-4387-b4ab-867d700f3c2b" xmlns:ns4="e30140dd-c666-4ff3-ac60-2216e57fdebb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e666f408171dadceff32507896a4d13" ns3:_="" ns4:_="">
     <xsd:import namespace="e25ae402-d948-4387-b4ab-867d700f3c2b"/>
@@ -629,22 +645,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25C01A22-7756-4B36-B7A9-755F53155461}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e30140dd-c666-4ff3-ac60-2216e57fdebb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e25ae402-d948-4387-b4ab-867d700f3c2b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBC7FAB-CAEA-41C0-9070-19353462C67D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B52378-2C44-47BD-ADD3-DEA8E4B4BEA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -661,29 +687,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBC7FAB-CAEA-41C0-9070-19353462C67D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25C01A22-7756-4B36-B7A9-755F53155461}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e25ae402-d948-4387-b4ab-867d700f3c2b"/>
-    <ds:schemaRef ds:uri="e30140dd-c666-4ff3-ac60-2216e57fdebb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>